--- a/Docs/FCPC BOM.xlsx
+++ b/Docs/FCPC BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -103,139 +103,118 @@
     <t xml:space="preserve">$200.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Breakout PCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhouse Design, wiring  breakout Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Channel RPi CAN Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.waveshare.com/2-ch-can-hat.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoRa Modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemetry Over LoRa Comms (HF Version, TCXO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.waveshare.com/usb-to-lora.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$35.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoRa Antenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Extension and Location Flexibility (868MHZ version)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powered USB Hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12V Power In over Barrel Jack Connector</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">e.g </t>
-    </r>
+    <t xml:space="preserve">Cooling Fan</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://amzn.eu/d/gOa1naj</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPV Camera &amp; Transmitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.eu/d/8iTdUrI</t>
+      <t xml:space="preserve">https://www.amazon.com/Dedicated-Cooling-Designed-Raspberry-Adjustment/dp/B09328RJK2/ref=sr_1_14?refresh=1&amp;sr=8-14</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">$7.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$15.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakout PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhouse Design, wiring  breakout Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Channel RPi CAN Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waveshare.com/2-ch-can-hat.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$21.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoRa Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry Over LoRa Comms (HF Version, TCXO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waveshare.com/usb-to-lora.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$17.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$35.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoRa Antenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Extension and Location Flexibility (868MHZ version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powered USB Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12V Power In over Barrel Jack Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g https://amzn.eu/d/gOa1naj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPV Camera &amp; Transmitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.eu/d/8iTdUrI </t>
+  </si>
+  <si>
     <t xml:space="preserve">$230.00</t>
   </si>
   <si>
     <t xml:space="preserve">FPV Monitor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.eu/d/cirWO3p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.eu/d/cirWO3p </t>
   </si>
   <si>
     <t xml:space="preserve">$120.00</t>
@@ -247,31 +226,7 @@
     <t xml:space="preserve">Point to Point Wireless Bridge</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">e.g </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.eu/d/02wFvdkK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">e.g https://amzn.eu/d/02wFvdkK </t>
   </si>
   <si>
     <t xml:space="preserve">$90.00</t>
@@ -284,11 +239,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,12 +265,21 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,21 +324,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -499,362 +476,380 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="99.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="n">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="n">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="n">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.digikey.co.uk/en/products/detail/raspberry-pi/SC0687/13530926"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.elecrow.com/elecrow-10-1-inch-display-ips-1280x800-acrylic-case-touch-screen-compatible.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.otto-controls.com/products/joysticks/Joystick%20Bases%20and%20Grips/HJLG3-M%20Joystick%20with%20Grip"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://www.waveshare.com/usb-to-lora.htm"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://amzn.eu/d/gOa1naj"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://amzn.eu/d/8iTdUrI"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://amzn.eu/d/cirWO3p"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://amzn.eu/d/02wFvdkK"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.amazon.com/Dedicated-Cooling-Designed-Raspberry-Adjustment/dp/B09328RJK2/ref=sr_1_14?refresh=1&amp;sr=8-14"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://www.waveshare.com/usb-to-lora.htm"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
+    <hyperlink ref="C11" r:id="rId8" display="e.g https://amzn.eu/d/gOa1naj"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://amzn.eu/d/8iTdUrI "/>
+    <hyperlink ref="C13" r:id="rId10" display="https://amzn.eu/d/cirWO3p "/>
+    <hyperlink ref="C14" r:id="rId11" display="e.g https://amzn.eu/d/02wFvdkK "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Docs/FCPC BOM.xlsx
+++ b/Docs/FCPC BOM.xlsx
@@ -106,25 +106,7 @@
     <t xml:space="preserve">Cooling Fan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.amazon.com/Dedicated-Cooling-Designed-Raspberry-Adjustment/dp/B09328RJK2/ref=sr_1_14?refresh=1&amp;sr=8-14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.amazon.com/Dedicated-Cooling-Designed-Raspberry-Adjustment/dp/B09328RJK2/ref=sr_1_14?refresh=1&amp;sr=8-14 , https://www.waveshare.com/fan-4010-pwm-12v.htm  </t>
   </si>
   <si>
     <t xml:space="preserve">$7.90</t>
@@ -239,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,13 +245,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -324,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,12 +320,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -479,14 +450,14 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="99.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="140.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.46"/>
   </cols>
   <sheetData>
@@ -737,7 +708,7 @@
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -808,7 +779,7 @@
       <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -842,14 +813,13 @@
     <hyperlink ref="C2" r:id="rId1" display="https://www.digikey.co.uk/en/products/detail/raspberry-pi/SC0687/13530926"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.elecrow.com/elecrow-10-1-inch-display-ips-1280x800-acrylic-case-touch-screen-compatible.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.otto-controls.com/products/joysticks/Joystick%20Bases%20and%20Grips/HJLG3-M%20Joystick%20with%20Grip"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.amazon.com/Dedicated-Cooling-Designed-Raspberry-Adjustment/dp/B09328RJK2/ref=sr_1_14?refresh=1&amp;sr=8-14"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://www.waveshare.com/usb-to-lora.htm"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
-    <hyperlink ref="C11" r:id="rId8" display="e.g https://amzn.eu/d/gOa1naj"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://amzn.eu/d/8iTdUrI "/>
-    <hyperlink ref="C13" r:id="rId10" display="https://amzn.eu/d/cirWO3p "/>
-    <hyperlink ref="C14" r:id="rId11" display="e.g https://amzn.eu/d/02wFvdkK "/>
+    <hyperlink ref="C8" r:id="rId4" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://www.waveshare.com/usb-to-lora.htm"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
+    <hyperlink ref="C11" r:id="rId7" display="e.g https://amzn.eu/d/gOa1naj"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://amzn.eu/d/8iTdUrI "/>
+    <hyperlink ref="C13" r:id="rId9" display="https://amzn.eu/d/cirWO3p "/>
+    <hyperlink ref="C14" r:id="rId10" display="e.g https://amzn.eu/d/02wFvdkK "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Docs/FCPC BOM.xlsx
+++ b/Docs/FCPC BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -100,6 +100,27 @@
     <t xml:space="preserve">Display mounts, 3D printed enclosures, etc</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/Arrow-air/Feather-Companion-Computer/tree/main/Hardware/Enclosure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">$200.00</t>
   </si>
   <si>
@@ -121,6 +142,27 @@
     <t xml:space="preserve">Inhouse Design, wiring  breakout Board</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/Arrow-air/Feather-Companion-Computer/tree/main/Hardware/PCBs/FCPC%20Breakout%20PCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">$25.00</t>
   </si>
   <si>
@@ -208,7 +250,7 @@
     <t xml:space="preserve">Point to Point Wireless Bridge</t>
   </si>
   <si>
-    <t xml:space="preserve">e.g https://amzn.eu/d/02wFvdkK </t>
+    <t xml:space="preserve">https://a.co/d/ivutc1m ( potential alternative e.g https://amzn.eu/d/02wFvdkK )</t>
   </si>
   <si>
     <t xml:space="preserve">$90.00</t>
@@ -221,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -245,6 +287,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -299,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,8 +369,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -572,9 +629,11 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -590,42 +649,44 @@
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="2" t="s">
@@ -634,92 +695,92 @@
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2" t="s">
@@ -728,21 +789,21 @@
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2" t="s">
@@ -751,21 +812,21 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="2" t="s">
@@ -774,23 +835,23 @@
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="2" t="s">
@@ -813,13 +874,14 @@
     <hyperlink ref="C2" r:id="rId1" display="https://www.digikey.co.uk/en/products/detail/raspberry-pi/SC0687/13530926"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.elecrow.com/elecrow-10-1-inch-display-ips-1280x800-acrylic-case-touch-screen-compatible.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.otto-controls.com/products/joysticks/Joystick%20Bases%20and%20Grips/HJLG3-M%20Joystick%20with%20Grip"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
-    <hyperlink ref="C9" r:id="rId5" display="https://www.waveshare.com/usb-to-lora.htm"/>
-    <hyperlink ref="C10" r:id="rId6" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
-    <hyperlink ref="C11" r:id="rId7" display="e.g https://amzn.eu/d/gOa1naj"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://amzn.eu/d/8iTdUrI "/>
-    <hyperlink ref="C13" r:id="rId9" display="https://amzn.eu/d/cirWO3p "/>
-    <hyperlink ref="C14" r:id="rId10" display="e.g https://amzn.eu/d/02wFvdkK "/>
+    <hyperlink ref="C5" r:id="rId4" display="https://github.com/Arrow-air/Feather-Companion-Computer/tree/main/Hardware/Enclosure"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://github.com/Arrow-air/Feather-Companion-Computer/tree/main/Hardware/PCBs/FCPC%20Breakout%20PCB"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://www.waveshare.com/2-ch-can-hat.htm"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://www.waveshare.com/usb-to-lora.htm"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://www.waveshare.com/868-915m-magnet-mount-antenna.htm?sku=24412"/>
+    <hyperlink ref="C11" r:id="rId9" display="e.g https://amzn.eu/d/gOa1naj"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://amzn.eu/d/8iTdUrI "/>
+    <hyperlink ref="C13" r:id="rId11" display="https://amzn.eu/d/cirWO3p "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
